--- a/PROJET/CRA/CRA-RESTIT-SAS-27-10-10.xlsx
+++ b/PROJET/CRA/CRA-RESTIT-SAS-27-10-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Total</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Recherche et lecture de documentation sur l'insertion de projets SAS dans une application JAVA</t>
+  </si>
+  <si>
+    <t>Création de nouveaux tableaux et graphiqes dans JAVA</t>
   </si>
 </sst>
 </file>
@@ -856,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -987,11 +990,13 @@
       <c r="D8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="69" customHeight="1" thickBot="1">
@@ -999,9 +1004,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="22"/>
-      <c r="C9" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1036,7 +1039,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="3">
         <f>SUM(H6:H10)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">

--- a/PROJET/CRA/CRA-RESTIT-SAS-27-10-10.xlsx
+++ b/PROJET/CRA/CRA-RESTIT-SAS-27-10-10.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="15600" windowHeight="8445"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="15600" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CRA" sheetId="22" r:id="rId1"/>
+    <sheet name="CRA Fin Novembre" sheetId="22" r:id="rId1"/>
+    <sheet name="CRA Début Décembre" sheetId="24" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Total</t>
   </si>
@@ -79,13 +80,16 @@
     <t>Charaf EL BELLAI</t>
   </si>
   <si>
-    <t>Rédaction du document de recensement des tableaux et graphiques</t>
-  </si>
-  <si>
-    <t>Recherche et lecture de documentation sur l'insertion de projets SAS dans une application JAVA</t>
-  </si>
-  <si>
-    <t>Création de nouveaux tableaux et graphiqes dans JAVA</t>
+    <t>Recherche sur la création de carte à partir de SAS</t>
+  </si>
+  <si>
+    <t>Test pour la mise en place d'une base de données Oracle en local</t>
+  </si>
+  <si>
+    <t>Recherche sur l'interfacage SAS/Java</t>
+  </si>
+  <si>
+    <t>Création d'une carte sous SAS avec données de la base Oracle</t>
   </si>
 </sst>
 </file>
@@ -451,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -556,6 +560,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -859,6 +869,420 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I32"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="36">
+        <v>40492</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="36">
+        <v>40512</v>
+      </c>
+      <c r="G2" s="37"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="69" customHeight="1" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="3">
+        <f>SUM(H6:H10)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="25"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="25"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="25"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="B13:H32"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
@@ -891,18 +1315,17 @@
       <c r="B2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="35">
-        <v>40478</v>
-      </c>
-      <c r="D2" s="35"/>
+      <c r="C2" s="36">
+        <v>40542</v>
+      </c>
+      <c r="D2" s="37"/>
       <c r="E2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="35">
-        <f>DATE(YEAR(C2), MONTH(C2),DAY(C2)+14)</f>
-        <v>40492</v>
-      </c>
-      <c r="G2" s="35"/>
+      <c r="F2" s="36">
+        <v>40527</v>
+      </c>
+      <c r="G2" s="37"/>
       <c r="H2" s="1"/>
       <c r="I2" s="4"/>
     </row>
@@ -985,18 +1408,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="69" customHeight="1" thickBot="1">
@@ -1039,7 +1458,7 @@
       <c r="G11" s="33"/>
       <c r="H11" s="3">
         <f>SUM(H6:H10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
@@ -1256,14 +1675,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B6:B10"/>
     <mergeCell ref="A13:A32"/>
     <mergeCell ref="B13:H32"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
